--- a/Hardware/Electrical Components/Module - Sensor/BOM Sensor module.xlsx
+++ b/Hardware/Electrical Components/Module - Sensor/BOM Sensor module.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A104CFCF-F218-49D5-A561-4D195D82C483}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EEC950-6F9D-4666-A0E7-4F433639144B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Linear voltage regulator 3.3  100mA</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>Power regulator for depth sensor</t>
+  </si>
+  <si>
     <t>1x6 angle female header</t>
   </si>
   <si>
@@ -97,9 +106,6 @@
     <t>223-1624-5-ND</t>
   </si>
   <si>
-    <t>CP-SJ-2504A-SMT-DKR-ND</t>
-  </si>
-  <si>
     <t>A130183CT-ND</t>
   </si>
   <si>
@@ -133,6 +139,12 @@
     <t>Price w extra</t>
   </si>
   <si>
+    <t>102-4772-ND</t>
+  </si>
+  <si>
+    <t>2.5mm audio jack 4 conductors</t>
+  </si>
+  <si>
     <t>S1111EC-40-ND</t>
   </si>
   <si>
@@ -140,6 +152,15 @@
   </si>
   <si>
     <t>Total with PCB</t>
+  </si>
+  <si>
+    <t>2.5 mm Aux right angle</t>
+  </si>
+  <si>
+    <t>839-1400-ND</t>
+  </si>
+  <si>
+    <t>CP-SJ-2504A-SMT-CT-ND</t>
   </si>
 </sst>
 </file>
@@ -190,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -210,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -496,38 +518,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P21"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="14"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="14"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -536,19 +558,19 @@
         <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
@@ -558,7 +580,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="11" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -584,9 +606,9 @@
         <v>5.6999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -594,7 +616,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" s="13">
         <v>6</v>
@@ -603,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>4</v>
@@ -620,7 +642,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
@@ -630,7 +652,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -656,7 +678,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -666,7 +688,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -695,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
@@ -705,7 +727,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="12">
         <v>5</v>
@@ -731,9 +753,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -741,7 +763,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -767,9 +789,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="9" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -777,7 +799,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -801,9 +823,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -811,7 +833,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -835,9 +857,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -845,14 +867,14 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>4</v>
@@ -869,9 +891,9 @@
         <v>10.72</v>
       </c>
     </row>
-    <row r="12" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -879,7 +901,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9">
         <v>1</v>
@@ -888,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>4</v>
@@ -905,133 +927,197 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+    <row r="13" spans="2:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2</v>
+      </c>
       <c r="K13" s="3"/>
-      <c r="L13"/>
+      <c r="L13" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="M13" s="5">
-        <v>21.7</v>
+        <v>4.34</v>
       </c>
       <c r="N13" s="5">
-        <f>M13/3</f>
-        <v>7.2333333333333334</v>
-      </c>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+        <f>M13*I13</f>
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="8"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="L14"/>
+      <c r="M14" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="N14" s="5">
+        <f>M14/3</f>
+        <v>7.2333333333333334</v>
+      </c>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="8"/>
       <c r="K15" s="3"/>
       <c r="L15" s="1"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="L16"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="8"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="L17"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="5">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5">
         <f>SUM(N3:N12)</f>
         <v>21.750000000000004</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O18" s="2">
         <f>SUM(O3:O12)</f>
         <v>22.999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="5">
-        <f>N17+N13</f>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="5">
+        <f>N18+N14</f>
         <v>28.983333333333338</v>
       </c>
-      <c r="O18" s="5">
-        <f>O17+N13</f>
+      <c r="O19" s="5">
+        <f>O18+N14</f>
         <v>30.233333333333331</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L19"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L20" s="1"/>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L20"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H21" s="11"/>
-      <c r="L21" s="1"/>
-      <c r="N21" s="2"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="P21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.85</v>
+      </c>
+      <c r="N22" s="2">
+        <f>M22*I22</f>
+        <v>7.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" xr:uid="{DE831BEC-05F0-4F49-97CE-3ECCD87285E2}"/>
-    <hyperlink ref="L5" r:id="rId2" xr:uid="{FC8F66BD-85B1-4041-B146-F73C61D944ED}"/>
-    <hyperlink ref="L6" r:id="rId3" xr:uid="{3A049ED6-3ED2-4604-B74E-9E4E3D30E206}"/>
-    <hyperlink ref="L11" r:id="rId4" xr:uid="{552441A0-68F9-41D3-B598-0EEDBACCFF51}"/>
-    <hyperlink ref="L12" r:id="rId5" xr:uid="{AF2B61CD-CB2A-4E4C-9385-160A6620B4A3}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{063BF713-BBBC-4485-913C-192B0383DF0C}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{06552046-9DB6-481A-82C4-B8DB83497F44}"/>
-    <hyperlink ref="L10" r:id="rId8" xr:uid="{94B3CAE7-8682-4E7D-97AE-DD1656DF8983}"/>
-    <hyperlink ref="L4" r:id="rId9" xr:uid="{671D67B3-3609-4871-9FA0-CB3D49B8B140}"/>
-    <hyperlink ref="L9" r:id="rId10" xr:uid="{830A2E8A-4F2F-4D69-B69A-9EC83FBEBCCD}"/>
+    <hyperlink ref="L21" r:id="rId2" xr:uid="{B4696F6B-2FFA-4AA0-8736-F76F3BB2B29C}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{FC8F66BD-85B1-4041-B146-F73C61D944ED}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{3A049ED6-3ED2-4604-B74E-9E4E3D30E206}"/>
+    <hyperlink ref="L11" r:id="rId5" xr:uid="{552441A0-68F9-41D3-B598-0EEDBACCFF51}"/>
+    <hyperlink ref="L12" r:id="rId6" xr:uid="{AF2B61CD-CB2A-4E4C-9385-160A6620B4A3}"/>
+    <hyperlink ref="L7" r:id="rId7" xr:uid="{063BF713-BBBC-4485-913C-192B0383DF0C}"/>
+    <hyperlink ref="L8" r:id="rId8" xr:uid="{06552046-9DB6-481A-82C4-B8DB83497F44}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{94B3CAE7-8682-4E7D-97AE-DD1656DF8983}"/>
+    <hyperlink ref="L4" r:id="rId10" xr:uid="{671D67B3-3609-4871-9FA0-CB3D49B8B140}"/>
+    <hyperlink ref="L22" r:id="rId11" xr:uid="{5818C876-43B5-4E84-8119-7439C496FBBD}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{830A2E8A-4F2F-4D69-B69A-9EC83FBEBCCD}"/>
+    <hyperlink ref="L13" r:id="rId13" xr:uid="{DDA488A1-F718-441D-AC75-060F471FE222}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>